--- a/Media_Outlet_result.xlsx
+++ b/Media_Outlet_result.xlsx
@@ -422,6 +422,21 @@
     <t>Thu Jun 05 00:54:31 +0000 2008</t>
   </si>
   <si>
+    <t>"We are sealing up our southern border": Trump speaks on National Guard deployment https://t.co/iEOhJq2BW1 https://t.co/HNvjLyKxWa</t>
+  </si>
+  <si>
+    <t>Facebook to notify users if their data was shared with Cambridge Analytica https://t.co/aAFaqpv9uU https://t.co/Ovut8dG2Ad</t>
+  </si>
+  <si>
+    <t>Assault weapons ban doesn't violate 2nd Amendment, judge says https://t.co/wEtX6WXu2o https://t.co/n0McjoetaM</t>
+  </si>
+  <si>
+    <t>Allegiant Air plane skids off snowy runway at South Dakota airport https://t.co/YENSn92Sr5 https://t.co/Qd4fl7cKuY</t>
+  </si>
+  <si>
+    <t>Family outraged after video of toddler frightened by the Easter Bunny goes viral https://t.co/oMStMha1bq https://t.co/S3C9uOCbMv</t>
+  </si>
+  <si>
     <t>Should you clone your dog? https://t.co/Hua2HHb4gN https://t.co/NjxvlaHyoP</t>
   </si>
   <si>
@@ -708,22 +723,19 @@
     <t>Northern California rains raise flood concerns; warnings and watches in effect https://t.co/jeGeVqBwET https://t.co/0qy3wdmui3</t>
   </si>
   <si>
-    <t>Older adults can still grow new brain cells, study finds https://t.co/QvvbLsyHET https://t.co/4DnulQfJO9</t>
-  </si>
-  <si>
-    <t>UPDATE: A civilian has died after a fire broke out in NYC's Trump Tower https://t.co/uf0Gb8XpuC https://t.co/jGuHCT8H5y</t>
-  </si>
-  <si>
-    <t>Family outraged after video of toddler frightened by the Easter Bunny goes viral https://t.co/YZYCniGYeM https://t.co/RAao2tYBQE</t>
-  </si>
-  <si>
-    <t>Doctors warn of "second wave" of the flu https://t.co/dqBi324C6L https://t.co/zYDcRA1h0N</t>
-  </si>
-  <si>
-    <t>UPDATE: The FDNY commissioner said 1 person is in critical condition and 4 firefighters suffered minor injuries in… https://t.co/kbxBCa67KM</t>
-  </si>
-  <si>
     <t>Sat Mar 24 10:48:14 +0000 2007</t>
+  </si>
+  <si>
+    <t>The US denied attacking a Syrian airfield on Sunday, hours after Donald Trump tweeted "Animal Assad" would have a "… https://t.co/m9Hydbgny6</t>
+  </si>
+  <si>
+    <t>Hockey community grieves after 15 killed in bus crash involving Canadian junior hockey team https://t.co/H8Cf7DurZN https://t.co/PyupF12pw0</t>
+  </si>
+  <si>
+    <t>Here's everything you need to know about the US-China trade battle https://t.co/DVCN3VaC4Q https://t.co/47ngXWC7aa</t>
+  </si>
+  <si>
+    <t>Stormy Daniels' attorney has once again filed a motion to depose US President Donald Trump and his lawyer, Michael… https://t.co/49mAv5DpjC</t>
   </si>
   <si>
     <t>Designing for hedonists: The evolution of nightclub interiors https://t.co/ZpFp7KJmYu via @CNNStyle https://t.co/Q0TGrZjuz2</t>
@@ -1026,19 +1038,46 @@
     <t>Roger Stone is warning that US President Donald Trump could get caught in a "perjury trap" if he sits down with spe… https://t.co/FlHYAptRIW</t>
   </si>
   <si>
-    <t>The US Justice Department is allowing all House and Senate intelligence committee members to review the application… https://t.co/Bh7ZZ6IecY</t>
-  </si>
-  <si>
-    <t>The US DHS pushes back on reaction to reports that it's seeking access to a database of journalists and bloggers, a… https://t.co/ZCV4Hg9HS2</t>
-  </si>
-  <si>
-    <t>Texas is preparing to deploy National Guard troops and vehicles to the US border with Mexico, the state's top milit… https://t.co/03vxomomdH</t>
-  </si>
-  <si>
-    <t>Virgin Galactic is one step closer to bringing tourists to space after this test flight https://t.co/kGH7T9WUp1 https://t.co/aXQhKMFfcJ</t>
-  </si>
-  <si>
     <t>Sat Mar 17 19:01:26 +0000 2007</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA: "[President @realDonaldTrump] was adamant about doing things different in the campaign, and that's… https://t.co/EK2RMKIQX5</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA: "It's obvious why @TheDemocrats don't believe in securing the border. I think that they just fear… https://t.co/7XdAYQqXxe</t>
+  </si>
+  <si>
+    <t>'Citizens Have a Right to Protect Themselves': GA Sheriff Explains Viral Concealed-Carry Sign… https://t.co/e5UpJWvP0D</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA on ObamaCare: "It's an atrocity." https://t.co/3mo7MCnCsy</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA on omnibus bill: "That's why people are so up in arms when it comes to the direction of our governm… https://t.co/C7ieLuxAyD</t>
+  </si>
+  <si>
+    <t>.@TheRealJohnHCox: "This criminal idea of the sanctuary state movement - the people are upset about this because it… https://t.co/b2c2Qbe23k</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA: "I'm privileged to have come into my own, politically speaking, during the Reagan years...so I kne… https://t.co/3bmCf7J2WI</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA on vice presidential run: "I would do it again in a heartbeat." https://t.co/mAlKDniX8a</t>
+  </si>
+  <si>
+    <t>BREAKING: Airstrikes hit Syria after deadly chemical attack, state TV reports https://t.co/YPf4Xv727K</t>
+  </si>
+  <si>
+    <t>.@SarahPalinUSA on running for governor: "We had a lot of corruption going on in our state, and people wanted it cl… https://t.co/WjKJ2iQjO6</t>
+  </si>
+  <si>
+    <t>.@TomiLahren on China trade war fears: "When the United States leads from the front, others come to the table. We'r… https://t.co/H8sT9qtstp</t>
+  </si>
+  <si>
+    <t>RIGHT NOW on "Life, Liberty, &amp;amp; Levin," @SarahPalinUSA sits down with @marklevinshow to discuss the border. Tune in… https://t.co/H6cgmHCDGp</t>
+  </si>
+  <si>
+    <t>OPINION: Divorce is an epidemic that causes as much pain as any disease -- so why don't we treat it that way? https://t.co/4hpTBLlxJ6</t>
   </si>
   <si>
     <t>.@TomiLahren on the state of the GOP: "Why is it always the Right that has to become more moderate? No, I don't thi… https://t.co/pDaOwjuF8d</t>
@@ -1303,46 +1342,19 @@
     <t>.@JudgeJeanine: "Who do we blame for the repeated trashing of @FLOTUS? Why is it open season on the First Family? W… https://t.co/ejSgX4XtmX</t>
   </si>
   <si>
-    <t>.@AlanDersh: President @realDonaldTrump Won't Repeat Fmr. President @BarackObama's 'Tragic Mistake' With Syria 'Red… https://t.co/DBmOx7EvPj</t>
-  </si>
-  <si>
-    <t>On “America’s News HQ,” former Arizona @GovBrewer slammed California @JerryBrownGov’s illegal immigration policies… https://t.co/fD7dapFV6R</t>
-  </si>
-  <si>
-    <t>On @foxandfriends, Harris County Sheriff Mike Jolley - who recently posted a sign outside the sheriff's office that… https://t.co/Nj36krRPcr</t>
-  </si>
-  <si>
-    <t>.@robertjeffress: "The reason Evangelicals overwhelmingly support @POTUS is not because he has a perfect past. None… https://t.co/BIF5gnrDIA</t>
-  </si>
-  <si>
-    <t>'Disgusted' mom discovers used needles on McDonald's baby changing table https://t.co/b6pJ9t29Ve</t>
-  </si>
-  <si>
-    <t>'Citizens Have a Right to Protect Themselves': GA Sheriff Explains Viral Concealed-Carry Sign… https://t.co/AInt7rwbx3</t>
-  </si>
-  <si>
-    <t>Berlin half-marathon attack plot foiled, 6 detained, officials say https://t.co/7tLI5e7v5u https://t.co/hp1EOvXFJ6</t>
-  </si>
-  <si>
-    <t>Elizabeth Hurley slammed for wearing cleavage-baring dress with her 16-year-old son https://t.co/hG2osQzsf5</t>
-  </si>
-  <si>
-    <t>.@TheRealJohnHCox: "This criminal idea of the sanctuary state movement - the people are upset about this because it… https://t.co/snCudXuYsI</t>
-  </si>
-  <si>
-    <t>Fire at Trump Tower leaves one man dead, several firefighters injured; @BryanLlenas reports. https://t.co/nNnUbhorwR</t>
-  </si>
-  <si>
-    <t>On @foxandfriends, @JudicialWatch President @TomFitton said that @AGLynch needs to be candid about the infamous tar… https://t.co/j7ZGExKRTb</t>
-  </si>
-  <si>
-    <t>.@cvpayne: "This last month we saw the second-lowest unemployment rate for black Americans in history." https://t.co/pcyPRMezaX</t>
-  </si>
-  <si>
-    <t>Pro-gun rights activists rally against new measures on firearm sales in Vermont https://t.co/d90JsaUjGS</t>
-  </si>
-  <si>
     <t>Fri Mar 02 20:41:42 +0000 2007</t>
+  </si>
+  <si>
+    <t>The tiny elevator in a Brooklyn housing project will forever be tainted by the murder of a 6-year-old inside nearly… https://t.co/EyJA7ZTETJ</t>
+  </si>
+  <si>
+    <t>South Carolina's former first lady, Jenny Sanford, wasn’t looking to remarry after her high-profile divorce, until… https://t.co/VoB54wj2x8</t>
+  </si>
+  <si>
+    <t>Modern Love: "I’m not sure it’s possible to justify my liaisons with married men, but what I learned from having th… https://t.co/m9V38iZ3hx</t>
+  </si>
+  <si>
+    <t>Review: ‘Mean Girls’ Sets the Perils of Being Popular to Song https://t.co/ocyCL7g1JL</t>
   </si>
   <si>
     <t>Michigan will stop providing free bottled water to the city of Flint. City officials criticized the move, noting th… https://t.co/EdAuT0cJyH</t>
@@ -1634,18 +1646,6 @@
   </si>
   <si>
     <t>Neither a traditional tutor nor a straight-up therapist, a "homework therapist" is an amalgam of the two https://t.co/abx6za5LLg</t>
-  </si>
-  <si>
-    <t>‘Big Brother’ in India Requires Fingerprint Scans for Food, Phones and Finances https://t.co/XVdURtZ6hi</t>
-  </si>
-  <si>
-    <t>The tiny elevator in a Brooklyn housing project will forever be tainted by the murder of a 6-year-old inside nearly… https://t.co/L1CyDzBru1</t>
-  </si>
-  <si>
-    <t>"My parents don’t want to just throw money around now. I’m getting a great education at a fraction of the cost." https://t.co/s0SkPCiYb3</t>
-  </si>
-  <si>
-    <t>Poison Gas Attack Reported by Syrian Anti-Government Activists https://t.co/OMPF0xpd7x</t>
   </si>
 </sst>
 </file>
@@ -2048,16 +2048,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.208916</v>
+        <v>-0.194165</v>
       </c>
       <c r="C3">
-        <v>0.79065</v>
+        <v>0.79305</v>
       </c>
       <c r="D3">
-        <v>0.15731</v>
+        <v>0.15203</v>
       </c>
       <c r="E3">
-        <v>0.05201000000000001</v>
+        <v>0.05489</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2065,16 +2065,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.051</v>
+        <v>-0.08035</v>
       </c>
       <c r="C4">
-        <v>0.82785</v>
+        <v>0.8227899999999999</v>
       </c>
       <c r="D4">
-        <v>0.0963</v>
+        <v>0.10508</v>
       </c>
       <c r="E4">
-        <v>0.07586</v>
+        <v>0.07214000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2082,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.116264</v>
+        <v>-0.101493</v>
       </c>
       <c r="C5">
-        <v>0.81401</v>
+        <v>0.8215399999999999</v>
       </c>
       <c r="D5">
-        <v>0.12352</v>
+        <v>0.11492</v>
       </c>
       <c r="E5">
-        <v>0.06247</v>
+        <v>0.06355000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2099,16 +2099,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01325099999999999</v>
+        <v>0.02129499999999999</v>
       </c>
       <c r="C6">
-        <v>0.82973</v>
+        <v>0.83309</v>
       </c>
       <c r="D6">
-        <v>0.08827</v>
+        <v>0.08406000000000001</v>
       </c>
       <c r="E6">
-        <v>0.08201</v>
+        <v>0.08286000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4517,16 +4517,16 @@
         <v>116</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.844</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4540,16 +4540,16 @@
         <v>117</v>
       </c>
       <c r="D4">
-        <v>-0.34</v>
+        <v>-0.8258</v>
       </c>
       <c r="E4">
-        <v>0.862</v>
+        <v>0.351</v>
       </c>
       <c r="F4">
-        <v>0.138</v>
+        <v>0.517</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4563,13 +4563,13 @@
         <v>118</v>
       </c>
       <c r="D5">
-        <v>-0.886</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.514</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.486</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4586,16 +4586,16 @@
         <v>119</v>
       </c>
       <c r="D6">
-        <v>-0.2617</v>
+        <v>-0.7506</v>
       </c>
       <c r="E6">
-        <v>0.8149999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F6">
-        <v>0.118</v>
+        <v>0.33</v>
       </c>
       <c r="G6">
-        <v>0.067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4609,13 +4609,13 @@
         <v>120</v>
       </c>
       <c r="D7">
-        <v>-0.7579</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.629</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.371</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4632,16 +4632,16 @@
         <v>121</v>
       </c>
       <c r="D8">
-        <v>0.5574</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4655,16 +4655,16 @@
         <v>122</v>
       </c>
       <c r="D9">
-        <v>0.4588</v>
+        <v>-0.34</v>
       </c>
       <c r="E9">
-        <v>0.842</v>
+        <v>0.862</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="G9">
-        <v>0.158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4678,16 +4678,16 @@
         <v>123</v>
       </c>
       <c r="D10">
-        <v>0.128</v>
+        <v>-0.886</v>
       </c>
       <c r="E10">
-        <v>0.903</v>
+        <v>0.514</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="G10">
-        <v>0.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4701,16 +4701,16 @@
         <v>124</v>
       </c>
       <c r="D11">
-        <v>-0.34</v>
+        <v>-0.2617</v>
       </c>
       <c r="E11">
-        <v>0.833</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F11">
-        <v>0.167</v>
+        <v>0.118</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4724,13 +4724,13 @@
         <v>125</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.7579</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.629</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4747,16 +4747,16 @@
         <v>126</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5574</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4770,16 +4770,16 @@
         <v>127</v>
       </c>
       <c r="D14">
-        <v>0.128</v>
+        <v>0.4588</v>
       </c>
       <c r="E14">
-        <v>0.914</v>
+        <v>0.842</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.08599999999999999</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4793,16 +4793,16 @@
         <v>128</v>
       </c>
       <c r="D15">
-        <v>0.2263</v>
+        <v>0.128</v>
       </c>
       <c r="E15">
-        <v>0.788</v>
+        <v>0.903</v>
       </c>
       <c r="F15">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.128</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4816,16 +4816,16 @@
         <v>129</v>
       </c>
       <c r="D16">
-        <v>-0.3071</v>
+        <v>-0.34</v>
       </c>
       <c r="E16">
-        <v>0.736</v>
+        <v>0.833</v>
       </c>
       <c r="F16">
-        <v>0.198</v>
+        <v>0.167</v>
       </c>
       <c r="G16">
-        <v>0.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4885,16 +4885,16 @@
         <v>132</v>
       </c>
       <c r="D19">
-        <v>0.4939</v>
+        <v>0.128</v>
       </c>
       <c r="E19">
-        <v>0.856</v>
+        <v>0.914</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.144</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4908,16 +4908,16 @@
         <v>133</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2263</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.788</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4931,16 +4931,16 @@
         <v>134</v>
       </c>
       <c r="D21">
-        <v>0.3182</v>
+        <v>-0.3071</v>
       </c>
       <c r="E21">
-        <v>0.585</v>
+        <v>0.736</v>
       </c>
       <c r="F21">
-        <v>0.14</v>
+        <v>0.198</v>
       </c>
       <c r="G21">
-        <v>0.275</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4954,13 +4954,13 @@
         <v>135</v>
       </c>
       <c r="D22">
-        <v>-0.836</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.473</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5000,16 +5000,16 @@
         <v>137</v>
       </c>
       <c r="D24">
-        <v>0.2023</v>
+        <v>0.4939</v>
       </c>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.856</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.13</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5023,13 +5023,13 @@
         <v>138</v>
       </c>
       <c r="D25">
-        <v>-0.836</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.628</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5046,16 +5046,16 @@
         <v>139</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.3182</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.585</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5069,13 +5069,13 @@
         <v>140</v>
       </c>
       <c r="D27">
-        <v>-0.7096</v>
+        <v>-0.836</v>
       </c>
       <c r="E27">
-        <v>0.6879999999999999</v>
+        <v>0.473</v>
       </c>
       <c r="F27">
-        <v>0.312</v>
+        <v>0.527</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>142</v>
       </c>
       <c r="D29">
-        <v>-0.6124000000000001</v>
+        <v>0.2023</v>
       </c>
       <c r="E29">
-        <v>0.706</v>
+        <v>0.87</v>
       </c>
       <c r="F29">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5138,16 +5138,16 @@
         <v>143</v>
       </c>
       <c r="D30">
-        <v>-0.2263</v>
+        <v>-0.836</v>
       </c>
       <c r="E30">
-        <v>0.769</v>
+        <v>0.628</v>
       </c>
       <c r="F30">
-        <v>0.138</v>
+        <v>0.372</v>
       </c>
       <c r="G30">
-        <v>0.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5161,13 +5161,13 @@
         <v>144</v>
       </c>
       <c r="D31">
-        <v>-0.3182</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.887</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5184,13 +5184,13 @@
         <v>145</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-0.7096</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5230,16 +5230,16 @@
         <v>147</v>
       </c>
       <c r="D34">
-        <v>0.4404</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E34">
-        <v>0.868</v>
+        <v>0.706</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="G34">
-        <v>0.132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5253,16 +5253,16 @@
         <v>148</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.2263</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.769</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5276,13 +5276,13 @@
         <v>149</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>-0.3182</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.887</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5299,13 +5299,13 @@
         <v>150</v>
       </c>
       <c r="D37">
-        <v>-0.7783</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.726</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5322,13 +5322,13 @@
         <v>151</v>
       </c>
       <c r="D38">
-        <v>-0.6908</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.695</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5345,16 +5345,16 @@
         <v>152</v>
       </c>
       <c r="D39">
-        <v>-0.0516</v>
+        <v>0.4404</v>
       </c>
       <c r="E39">
-        <v>0.776</v>
+        <v>0.868</v>
       </c>
       <c r="F39">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.108</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5368,13 +5368,13 @@
         <v>153</v>
       </c>
       <c r="D40">
-        <v>-0.7717000000000001</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.621</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5391,13 +5391,13 @@
         <v>154</v>
       </c>
       <c r="D41">
-        <v>-0.7351</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.581</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>155</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-0.7783</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5437,16 +5437,16 @@
         <v>156</v>
       </c>
       <c r="D43">
-        <v>0.2263</v>
+        <v>-0.6908</v>
       </c>
       <c r="E43">
-        <v>0.526</v>
+        <v>0.695</v>
       </c>
       <c r="F43">
-        <v>0.203</v>
+        <v>0.305</v>
       </c>
       <c r="G43">
-        <v>0.271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5460,16 +5460,16 @@
         <v>157</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-0.0516</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.776</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5483,13 +5483,13 @@
         <v>158</v>
       </c>
       <c r="D45">
-        <v>-0.7351</v>
+        <v>-0.7717000000000001</v>
       </c>
       <c r="E45">
-        <v>0.581</v>
+        <v>0.621</v>
       </c>
       <c r="F45">
-        <v>0.419</v>
+        <v>0.379</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5506,16 +5506,16 @@
         <v>159</v>
       </c>
       <c r="D46">
-        <v>-0.6124000000000001</v>
+        <v>-0.7351</v>
       </c>
       <c r="E46">
-        <v>0.55</v>
+        <v>0.581</v>
       </c>
       <c r="F46">
-        <v>0.325</v>
+        <v>0.419</v>
       </c>
       <c r="G46">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5529,16 +5529,16 @@
         <v>160</v>
       </c>
       <c r="D47">
-        <v>-0.7184</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.529</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5552,16 +5552,16 @@
         <v>161</v>
       </c>
       <c r="D48">
-        <v>0.4215</v>
+        <v>0.2263</v>
       </c>
       <c r="E48">
-        <v>0.823</v>
+        <v>0.526</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="G48">
-        <v>0.177</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5575,13 +5575,13 @@
         <v>162</v>
       </c>
       <c r="D49">
-        <v>-0.5423</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.741</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5598,16 +5598,16 @@
         <v>163</v>
       </c>
       <c r="D50">
-        <v>0.5719</v>
+        <v>-0.7351</v>
       </c>
       <c r="E50">
-        <v>0.709</v>
+        <v>0.581</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="G50">
-        <v>0.291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5621,16 +5621,16 @@
         <v>164</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.325</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5644,16 +5644,16 @@
         <v>165</v>
       </c>
       <c r="D52">
-        <v>-0.7506</v>
+        <v>-0.7184</v>
       </c>
       <c r="E52">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="F52">
-        <v>0.444</v>
+        <v>0.382</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5667,16 +5667,16 @@
         <v>166</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.4215</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.823</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5690,13 +5690,13 @@
         <v>167</v>
       </c>
       <c r="D54">
-        <v>-0.5994</v>
+        <v>-0.5423</v>
       </c>
       <c r="E54">
-        <v>0.719</v>
+        <v>0.741</v>
       </c>
       <c r="F54">
-        <v>0.281</v>
+        <v>0.259</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5713,16 +5713,16 @@
         <v>168</v>
       </c>
       <c r="D55">
-        <v>-0.2732</v>
+        <v>0.5719</v>
       </c>
       <c r="E55">
-        <v>0.792</v>
+        <v>0.709</v>
       </c>
       <c r="F55">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5736,13 +5736,13 @@
         <v>169</v>
       </c>
       <c r="D56">
-        <v>-0.9062</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.553</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5759,13 +5759,13 @@
         <v>170</v>
       </c>
       <c r="D57">
-        <v>-0.296</v>
+        <v>-0.7506</v>
       </c>
       <c r="E57">
-        <v>0.761</v>
+        <v>0.556</v>
       </c>
       <c r="F57">
-        <v>0.239</v>
+        <v>0.444</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5805,16 +5805,16 @@
         <v>172</v>
       </c>
       <c r="D59">
-        <v>-0.128</v>
+        <v>-0.5994</v>
       </c>
       <c r="E59">
-        <v>0.629</v>
+        <v>0.719</v>
       </c>
       <c r="F59">
-        <v>0.2</v>
+        <v>0.281</v>
       </c>
       <c r="G59">
-        <v>0.171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5828,16 +5828,16 @@
         <v>173</v>
       </c>
       <c r="D60">
-        <v>-0.34</v>
+        <v>-0.2732</v>
       </c>
       <c r="E60">
-        <v>0.633</v>
+        <v>0.792</v>
       </c>
       <c r="F60">
-        <v>0.228</v>
+        <v>0.208</v>
       </c>
       <c r="G60">
-        <v>0.139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5851,13 +5851,13 @@
         <v>174</v>
       </c>
       <c r="D61">
-        <v>-0.7264</v>
+        <v>-0.9062</v>
       </c>
       <c r="E61">
-        <v>0.775</v>
+        <v>0.553</v>
       </c>
       <c r="F61">
-        <v>0.225</v>
+        <v>0.447</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>175</v>
       </c>
       <c r="D62">
-        <v>0.4939</v>
+        <v>-0.296</v>
       </c>
       <c r="E62">
-        <v>0.738</v>
+        <v>0.761</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="G62">
-        <v>0.262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5897,16 +5897,16 @@
         <v>176</v>
       </c>
       <c r="D63">
-        <v>0.5719</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.709</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5920,16 +5920,16 @@
         <v>177</v>
       </c>
       <c r="D64">
-        <v>-0.4939</v>
+        <v>-0.128</v>
       </c>
       <c r="E64">
-        <v>0.758</v>
+        <v>0.629</v>
       </c>
       <c r="F64">
-        <v>0.242</v>
+        <v>0.2</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5943,16 +5943,16 @@
         <v>178</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.633</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5966,13 +5966,13 @@
         <v>179</v>
       </c>
       <c r="D66">
-        <v>-0.6249</v>
+        <v>-0.7264</v>
       </c>
       <c r="E66">
-        <v>0.661</v>
+        <v>0.775</v>
       </c>
       <c r="F66">
-        <v>0.339</v>
+        <v>0.225</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5989,16 +5989,16 @@
         <v>180</v>
       </c>
       <c r="D67">
-        <v>-0.5859</v>
+        <v>0.4939</v>
       </c>
       <c r="E67">
-        <v>0.652</v>
+        <v>0.738</v>
       </c>
       <c r="F67">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6012,16 +6012,16 @@
         <v>181</v>
       </c>
       <c r="D68">
-        <v>-0.4588</v>
+        <v>0.5719</v>
       </c>
       <c r="E68">
-        <v>0.769</v>
+        <v>0.709</v>
       </c>
       <c r="F68">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6035,13 +6035,13 @@
         <v>182</v>
       </c>
       <c r="D69">
-        <v>-0.4588</v>
+        <v>-0.4939</v>
       </c>
       <c r="E69">
-        <v>0.8</v>
+        <v>0.758</v>
       </c>
       <c r="F69">
-        <v>0.2</v>
+        <v>0.242</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6081,16 +6081,16 @@
         <v>184</v>
       </c>
       <c r="D71">
-        <v>0.6705</v>
+        <v>-0.6249</v>
       </c>
       <c r="E71">
-        <v>0.703</v>
+        <v>0.661</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="G71">
-        <v>0.297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6127,13 +6127,13 @@
         <v>186</v>
       </c>
       <c r="D73">
-        <v>-0.34</v>
+        <v>-0.4588</v>
       </c>
       <c r="E73">
-        <v>0.844</v>
+        <v>0.769</v>
       </c>
       <c r="F73">
-        <v>0.156</v>
+        <v>0.231</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6150,13 +6150,13 @@
         <v>187</v>
       </c>
       <c r="D74">
-        <v>-0.743</v>
+        <v>-0.4588</v>
       </c>
       <c r="E74">
-        <v>0.588</v>
+        <v>0.8</v>
       </c>
       <c r="F74">
-        <v>0.412</v>
+        <v>0.2</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6173,16 +6173,16 @@
         <v>188</v>
       </c>
       <c r="D75">
-        <v>-0.2023</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.655</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6196,16 +6196,16 @@
         <v>189</v>
       </c>
       <c r="D76">
-        <v>-0.4019</v>
+        <v>0.6705</v>
       </c>
       <c r="E76">
-        <v>0.838</v>
+        <v>0.703</v>
       </c>
       <c r="F76">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6219,13 +6219,13 @@
         <v>190</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-0.5859</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.652</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6245,10 +6245,10 @@
         <v>-0.34</v>
       </c>
       <c r="E78">
-        <v>0.862</v>
+        <v>0.844</v>
       </c>
       <c r="F78">
-        <v>0.138</v>
+        <v>0.156</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6265,16 +6265,16 @@
         <v>192</v>
       </c>
       <c r="D79">
-        <v>0.34</v>
+        <v>-0.743</v>
       </c>
       <c r="E79">
-        <v>0.806</v>
+        <v>0.588</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="G79">
-        <v>0.194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6288,16 +6288,16 @@
         <v>193</v>
       </c>
       <c r="D80">
-        <v>-0.34</v>
+        <v>-0.2023</v>
       </c>
       <c r="E80">
-        <v>0.821</v>
+        <v>0.655</v>
       </c>
       <c r="F80">
-        <v>0.179</v>
+        <v>0.196</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6311,16 +6311,16 @@
         <v>194</v>
       </c>
       <c r="D81">
-        <v>-0.2023</v>
+        <v>-0.4019</v>
       </c>
       <c r="E81">
-        <v>0.655</v>
+        <v>0.838</v>
       </c>
       <c r="F81">
-        <v>0.196</v>
+        <v>0.162</v>
       </c>
       <c r="G81">
-        <v>0.149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6334,13 +6334,13 @@
         <v>195</v>
       </c>
       <c r="D82">
-        <v>-0.5423</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -6357,13 +6357,13 @@
         <v>196</v>
       </c>
       <c r="D83">
-        <v>-0.743</v>
+        <v>-0.34</v>
       </c>
       <c r="E83">
-        <v>0.588</v>
+        <v>0.862</v>
       </c>
       <c r="F83">
-        <v>0.412</v>
+        <v>0.138</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -6380,16 +6380,16 @@
         <v>197</v>
       </c>
       <c r="D84">
-        <v>-0.0516</v>
+        <v>0.34</v>
       </c>
       <c r="E84">
-        <v>0.6850000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="F84">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.151</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6403,13 +6403,13 @@
         <v>198</v>
       </c>
       <c r="D85">
-        <v>-0.4939</v>
+        <v>-0.34</v>
       </c>
       <c r="E85">
-        <v>0.758</v>
+        <v>0.821</v>
       </c>
       <c r="F85">
-        <v>0.242</v>
+        <v>0.179</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -6426,16 +6426,16 @@
         <v>199</v>
       </c>
       <c r="D86">
-        <v>-0.6705</v>
+        <v>-0.2023</v>
       </c>
       <c r="E86">
-        <v>0.718</v>
+        <v>0.655</v>
       </c>
       <c r="F86">
-        <v>0.282</v>
+        <v>0.196</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6449,16 +6449,16 @@
         <v>200</v>
       </c>
       <c r="D87">
-        <v>0.34</v>
+        <v>-0.5423</v>
       </c>
       <c r="E87">
-        <v>0.833</v>
+        <v>0.64</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="G87">
-        <v>0.167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6472,16 +6472,16 @@
         <v>201</v>
       </c>
       <c r="D88">
-        <v>0.7351</v>
+        <v>-0.743</v>
       </c>
       <c r="E88">
-        <v>0.64</v>
+        <v>0.588</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="G88">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6495,16 +6495,16 @@
         <v>202</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>-0.0516</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6518,16 +6518,16 @@
         <v>203</v>
       </c>
       <c r="D90">
-        <v>0.4939</v>
+        <v>-0.4939</v>
       </c>
       <c r="E90">
-        <v>0.738</v>
+        <v>0.758</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="G90">
-        <v>0.262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6541,13 +6541,13 @@
         <v>204</v>
       </c>
       <c r="D91">
-        <v>-0.8779</v>
+        <v>-0.6705</v>
       </c>
       <c r="E91">
-        <v>0.448</v>
+        <v>0.718</v>
       </c>
       <c r="F91">
-        <v>0.552</v>
+        <v>0.282</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -6564,16 +6564,16 @@
         <v>205</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6587,16 +6587,16 @@
         <v>206</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.7351</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6633,16 +6633,16 @@
         <v>208</v>
       </c>
       <c r="D95">
-        <v>-0.4588</v>
+        <v>0.4939</v>
       </c>
       <c r="E95">
-        <v>0.769</v>
+        <v>0.738</v>
       </c>
       <c r="F95">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6656,13 +6656,13 @@
         <v>209</v>
       </c>
       <c r="D96">
-        <v>-0.296</v>
+        <v>-0.8779</v>
       </c>
       <c r="E96">
-        <v>0.845</v>
+        <v>0.448</v>
       </c>
       <c r="F96">
-        <v>0.155</v>
+        <v>0.552</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -6702,13 +6702,13 @@
         <v>211</v>
       </c>
       <c r="D98">
-        <v>-0.8316</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.556</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -6725,13 +6725,13 @@
         <v>212</v>
       </c>
       <c r="D99">
-        <v>-0.7506</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6751,10 +6751,10 @@
         <v>-0.4588</v>
       </c>
       <c r="E100">
-        <v>0.667</v>
+        <v>0.769</v>
       </c>
       <c r="F100">
-        <v>0.333</v>
+        <v>0.231</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6771,13 +6771,13 @@
         <v>214</v>
       </c>
       <c r="D101">
-        <v>-0.6705</v>
+        <v>-0.296</v>
       </c>
       <c r="E101">
-        <v>0.732</v>
+        <v>0.845</v>
       </c>
       <c r="F101">
-        <v>0.268</v>
+        <v>0.155</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6830,13 +6830,13 @@
         <v>216</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.7096</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.742</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6853,16 +6853,16 @@
         <v>217</v>
       </c>
       <c r="D3">
-        <v>0.6369</v>
+        <v>-0.8834</v>
       </c>
       <c r="E3">
-        <v>0.704</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="G3">
-        <v>0.296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6876,16 +6876,16 @@
         <v>218</v>
       </c>
       <c r="D4">
-        <v>0.5719</v>
+        <v>-0.3818</v>
       </c>
       <c r="E4">
-        <v>0.764</v>
+        <v>0.822</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="G4">
-        <v>0.236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6899,16 +6899,16 @@
         <v>219</v>
       </c>
       <c r="D5">
-        <v>0.7717000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.642</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6922,16 +6922,16 @@
         <v>220</v>
       </c>
       <c r="D6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.446</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6945,16 +6945,16 @@
         <v>221</v>
       </c>
       <c r="D7">
-        <v>0.7717000000000001</v>
+        <v>0.6369</v>
       </c>
       <c r="E7">
-        <v>0.642</v>
+        <v>0.704</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.358</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6971,13 +6971,13 @@
         <v>0.5719</v>
       </c>
       <c r="E8">
-        <v>0.829</v>
+        <v>0.764</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.171</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6991,16 +6991,16 @@
         <v>223</v>
       </c>
       <c r="D9">
-        <v>-0.5574</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="E9">
-        <v>0.833</v>
+        <v>0.642</v>
       </c>
       <c r="F9">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7014,16 +7014,16 @@
         <v>224</v>
       </c>
       <c r="D10">
-        <v>-0.6249</v>
+        <v>0.34</v>
       </c>
       <c r="E10">
-        <v>0.611</v>
+        <v>0.446</v>
       </c>
       <c r="F10">
-        <v>0.389</v>
+        <v>0.218</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7037,16 +7037,16 @@
         <v>225</v>
       </c>
       <c r="D11">
-        <v>-0.2732</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="E11">
-        <v>0.759</v>
+        <v>0.642</v>
       </c>
       <c r="F11">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.097</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7060,16 +7060,16 @@
         <v>226</v>
       </c>
       <c r="D12">
-        <v>0.2023</v>
+        <v>0.5719</v>
       </c>
       <c r="E12">
-        <v>0.878</v>
+        <v>0.829</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.122</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7083,13 +7083,13 @@
         <v>227</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.5574</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -7106,13 +7106,13 @@
         <v>228</v>
       </c>
       <c r="D14">
-        <v>-0.8834</v>
+        <v>-0.6249</v>
       </c>
       <c r="E14">
-        <v>0.5580000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="F14">
-        <v>0.442</v>
+        <v>0.389</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -7129,16 +7129,16 @@
         <v>229</v>
       </c>
       <c r="D15">
-        <v>-0.4588</v>
+        <v>-0.2732</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>0.759</v>
       </c>
       <c r="F15">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7152,16 +7152,16 @@
         <v>230</v>
       </c>
       <c r="D16">
-        <v>-0.7717000000000001</v>
+        <v>0.2023</v>
       </c>
       <c r="E16">
-        <v>0.573</v>
+        <v>0.878</v>
       </c>
       <c r="F16">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7198,16 +7198,16 @@
         <v>232</v>
       </c>
       <c r="D18">
-        <v>0.34</v>
+        <v>-0.8834</v>
       </c>
       <c r="E18">
-        <v>0.446</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F18">
-        <v>0.218</v>
+        <v>0.442</v>
       </c>
       <c r="G18">
-        <v>0.337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7221,13 +7221,13 @@
         <v>233</v>
       </c>
       <c r="D19">
-        <v>-0.6249</v>
+        <v>-0.4588</v>
       </c>
       <c r="E19">
-        <v>0.611</v>
+        <v>0.75</v>
       </c>
       <c r="F19">
-        <v>0.389</v>
+        <v>0.25</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -7244,16 +7244,16 @@
         <v>234</v>
       </c>
       <c r="D20">
-        <v>0.5574</v>
+        <v>-0.7717000000000001</v>
       </c>
       <c r="E20">
-        <v>0.706</v>
+        <v>0.573</v>
       </c>
       <c r="F20">
-        <v>0.07099999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="G20">
-        <v>0.224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7290,16 +7290,16 @@
         <v>236</v>
       </c>
       <c r="D22">
-        <v>-0.4767</v>
+        <v>0.34</v>
       </c>
       <c r="E22">
-        <v>0.785</v>
+        <v>0.446</v>
       </c>
       <c r="F22">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7313,13 +7313,13 @@
         <v>237</v>
       </c>
       <c r="D23">
-        <v>-0.2263</v>
+        <v>-0.6249</v>
       </c>
       <c r="E23">
-        <v>0.888</v>
+        <v>0.611</v>
       </c>
       <c r="F23">
-        <v>0.112</v>
+        <v>0.389</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -7336,16 +7336,16 @@
         <v>238</v>
       </c>
       <c r="D24">
-        <v>0.5719</v>
+        <v>0.5574</v>
       </c>
       <c r="E24">
-        <v>0.764</v>
+        <v>0.706</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G24">
-        <v>0.236</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7382,13 +7382,13 @@
         <v>240</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-0.4767</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.785</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>241</v>
       </c>
       <c r="D27">
-        <v>-0.4019</v>
+        <v>-0.2263</v>
       </c>
       <c r="E27">
-        <v>0.886</v>
+        <v>0.888</v>
       </c>
       <c r="F27">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -7428,16 +7428,16 @@
         <v>242</v>
       </c>
       <c r="D28">
-        <v>0.4404</v>
+        <v>0.5719</v>
       </c>
       <c r="E28">
-        <v>0.804</v>
+        <v>0.764</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.196</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7451,16 +7451,16 @@
         <v>243</v>
       </c>
       <c r="D29">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.741</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7474,13 +7474,13 @@
         <v>244</v>
       </c>
       <c r="D30">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.893</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -7497,16 +7497,16 @@
         <v>245</v>
       </c>
       <c r="D31">
-        <v>0.5994</v>
+        <v>-0.4019</v>
       </c>
       <c r="E31">
-        <v>0.62</v>
+        <v>0.886</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="G31">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7520,16 +7520,16 @@
         <v>246</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.4404</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.804</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7543,16 +7543,16 @@
         <v>247</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.741</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7566,13 +7566,13 @@
         <v>248</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.893</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7589,16 +7589,16 @@
         <v>249</v>
       </c>
       <c r="D35">
-        <v>0.2023</v>
+        <v>0.5994</v>
       </c>
       <c r="E35">
-        <v>0.735</v>
+        <v>0.62</v>
       </c>
       <c r="F35">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.152</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7612,16 +7612,16 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>0.6486</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.751</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7635,13 +7635,13 @@
         <v>251</v>
       </c>
       <c r="D37">
-        <v>-0.6486</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.736</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.264</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>252</v>
       </c>
       <c r="D38">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.819</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7681,16 +7681,16 @@
         <v>253</v>
       </c>
       <c r="D39">
-        <v>-0.6705</v>
+        <v>0.2023</v>
       </c>
       <c r="E39">
-        <v>0.8159999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="F39">
-        <v>0.184</v>
+        <v>0.113</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7704,16 +7704,16 @@
         <v>254</v>
       </c>
       <c r="D40">
-        <v>0.6705</v>
+        <v>0.6486</v>
       </c>
       <c r="E40">
-        <v>0.552</v>
+        <v>0.751</v>
       </c>
       <c r="F40">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.362</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7727,13 +7727,13 @@
         <v>255</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-0.6486</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.736</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7750,13 +7750,13 @@
         <v>256</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-0.4767</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.819</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7773,13 +7773,13 @@
         <v>257</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-0.6705</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7796,16 +7796,16 @@
         <v>258</v>
       </c>
       <c r="D44">
-        <v>-0.802</v>
+        <v>0.6705</v>
       </c>
       <c r="E44">
-        <v>0.625</v>
+        <v>0.552</v>
       </c>
       <c r="F44">
-        <v>0.375</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7819,16 +7819,16 @@
         <v>259</v>
       </c>
       <c r="D45">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0.704</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7842,13 +7842,13 @@
         <v>260</v>
       </c>
       <c r="D46">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.838</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7865,16 +7865,16 @@
         <v>261</v>
       </c>
       <c r="D47">
-        <v>0.3182</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.752</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7888,13 +7888,13 @@
         <v>262</v>
       </c>
       <c r="D48">
-        <v>-0.6705</v>
+        <v>-0.802</v>
       </c>
       <c r="E48">
-        <v>0.824</v>
+        <v>0.625</v>
       </c>
       <c r="F48">
-        <v>0.176</v>
+        <v>0.375</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         <v>263</v>
       </c>
       <c r="D49">
-        <v>0.5859</v>
+        <v>-0.4404</v>
       </c>
       <c r="E49">
-        <v>0.774</v>
+        <v>0.704</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="G49">
-        <v>0.226</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7934,13 +7934,13 @@
         <v>264</v>
       </c>
       <c r="D50">
-        <v>-0.7906</v>
+        <v>-0.4767</v>
       </c>
       <c r="E50">
-        <v>0.731</v>
+        <v>0.838</v>
       </c>
       <c r="F50">
-        <v>0.269</v>
+        <v>0.162</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7957,16 +7957,16 @@
         <v>265</v>
       </c>
       <c r="D51">
-        <v>-0.5859</v>
+        <v>0.3182</v>
       </c>
       <c r="E51">
-        <v>0.759</v>
+        <v>0.752</v>
       </c>
       <c r="F51">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7980,13 +7980,13 @@
         <v>266</v>
       </c>
       <c r="D52">
-        <v>-0.7906</v>
+        <v>-0.6705</v>
       </c>
       <c r="E52">
-        <v>0.731</v>
+        <v>0.824</v>
       </c>
       <c r="F52">
-        <v>0.269</v>
+        <v>0.176</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -8003,16 +8003,16 @@
         <v>267</v>
       </c>
       <c r="D53">
-        <v>-0.296</v>
+        <v>0.5859</v>
       </c>
       <c r="E53">
-        <v>0.804</v>
+        <v>0.774</v>
       </c>
       <c r="F53">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -8026,13 +8026,13 @@
         <v>268</v>
       </c>
       <c r="D54">
-        <v>-0.6486</v>
+        <v>-0.7906</v>
       </c>
       <c r="E54">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="F54">
-        <v>0.264</v>
+        <v>0.269</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -8049,13 +8049,13 @@
         <v>269</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>-0.5859</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.759</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>270</v>
       </c>
       <c r="D56">
-        <v>-0.3818</v>
+        <v>-0.7906</v>
       </c>
       <c r="E56">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="F56">
-        <v>0.271</v>
+        <v>0.269</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -8095,13 +8095,13 @@
         <v>271</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-0.296</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.804</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>272</v>
       </c>
       <c r="D58">
-        <v>-0.9136</v>
+        <v>-0.6486</v>
       </c>
       <c r="E58">
-        <v>0.524</v>
+        <v>0.736</v>
       </c>
       <c r="F58">
-        <v>0.476</v>
+        <v>0.264</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -8141,16 +8141,16 @@
         <v>273</v>
       </c>
       <c r="D59">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.888</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -8164,16 +8164,16 @@
         <v>274</v>
       </c>
       <c r="D60">
-        <v>-0.4019</v>
+        <v>-0.3818</v>
       </c>
       <c r="E60">
-        <v>0.717</v>
+        <v>0.729</v>
       </c>
       <c r="F60">
-        <v>0.175</v>
+        <v>0.271</v>
       </c>
       <c r="G60">
-        <v>0.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -8187,16 +8187,16 @@
         <v>275</v>
       </c>
       <c r="D61">
-        <v>0.4019</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.803</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -8210,16 +8210,16 @@
         <v>276</v>
       </c>
       <c r="D62">
-        <v>0.3089</v>
+        <v>-0.9136</v>
       </c>
       <c r="E62">
-        <v>0.869</v>
+        <v>0.524</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="G62">
-        <v>0.131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -8233,16 +8233,16 @@
         <v>277</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.888</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -8256,16 +8256,16 @@
         <v>278</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-0.4019</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.717</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -8279,16 +8279,16 @@
         <v>279</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.4019</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.803</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -8302,16 +8302,16 @@
         <v>280</v>
       </c>
       <c r="D66">
-        <v>0.2023</v>
+        <v>0.3089</v>
       </c>
       <c r="E66">
-        <v>0.735</v>
+        <v>0.869</v>
       </c>
       <c r="F66">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.152</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -8325,16 +8325,16 @@
         <v>281</v>
       </c>
       <c r="D67">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.913</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -8348,13 +8348,13 @@
         <v>282</v>
       </c>
       <c r="D68">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0.893</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -8394,16 +8394,16 @@
         <v>284</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.735</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -8417,16 +8417,16 @@
         <v>285</v>
       </c>
       <c r="D71">
-        <v>0.4019</v>
+        <v>0.2023</v>
       </c>
       <c r="E71">
-        <v>0.87</v>
+        <v>0.913</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.13</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -8440,13 +8440,13 @@
         <v>286</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0.893</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -8463,13 +8463,13 @@
         <v>287</v>
       </c>
       <c r="D73">
-        <v>-0.5106000000000001</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.777</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -8486,13 +8486,13 @@
         <v>288</v>
       </c>
       <c r="D74">
-        <v>-0.6486</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.699</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -8509,16 +8509,16 @@
         <v>289</v>
       </c>
       <c r="D75">
-        <v>0.5187</v>
+        <v>0.4019</v>
       </c>
       <c r="E75">
-        <v>0.805</v>
+        <v>0.87</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.195</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -8532,16 +8532,16 @@
         <v>290</v>
       </c>
       <c r="D76">
-        <v>0.6486</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.751</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -8555,13 +8555,13 @@
         <v>291</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-0.5106000000000001</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.777</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -8578,13 +8578,13 @@
         <v>292</v>
       </c>
       <c r="D78">
-        <v>-0.5106000000000001</v>
+        <v>-0.6486</v>
       </c>
       <c r="E78">
-        <v>0.798</v>
+        <v>0.699</v>
       </c>
       <c r="F78">
-        <v>0.202</v>
+        <v>0.301</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -8601,16 +8601,16 @@
         <v>293</v>
       </c>
       <c r="D79">
-        <v>0.128</v>
+        <v>0.5187</v>
       </c>
       <c r="E79">
-        <v>0.786</v>
+        <v>0.805</v>
       </c>
       <c r="F79">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.118</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -8624,16 +8624,16 @@
         <v>294</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.6486</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.751</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -8673,10 +8673,10 @@
         <v>-0.5106000000000001</v>
       </c>
       <c r="E82">
-        <v>0.784</v>
+        <v>0.798</v>
       </c>
       <c r="F82">
-        <v>0.216</v>
+        <v>0.202</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>297</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0.786</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -8716,16 +8716,16 @@
         <v>298</v>
       </c>
       <c r="D84">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.893</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -8739,16 +8739,16 @@
         <v>299</v>
       </c>
       <c r="D85">
-        <v>0.6808</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8762,13 +8762,13 @@
         <v>300</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-0.5106000000000001</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.784</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8785,16 +8785,16 @@
         <v>301</v>
       </c>
       <c r="D87">
-        <v>0.4404</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0.804</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8808,16 +8808,16 @@
         <v>302</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.893</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8831,16 +8831,16 @@
         <v>303</v>
       </c>
       <c r="D89">
-        <v>0.3612</v>
+        <v>0.6808</v>
       </c>
       <c r="E89">
-        <v>0.889</v>
+        <v>0.714</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.111</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8854,16 +8854,16 @@
         <v>304</v>
       </c>
       <c r="D90">
-        <v>0.0258</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8877,16 +8877,16 @@
         <v>305</v>
       </c>
       <c r="D91">
-        <v>-0.3182</v>
+        <v>0.4404</v>
       </c>
       <c r="E91">
-        <v>0.783</v>
+        <v>0.804</v>
       </c>
       <c r="F91">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.078</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8900,13 +8900,13 @@
         <v>306</v>
       </c>
       <c r="D92">
-        <v>-0.4019</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0.886</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8923,16 +8923,16 @@
         <v>307</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.3612</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8946,16 +8946,16 @@
         <v>308</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8969,16 +8969,16 @@
         <v>309</v>
       </c>
       <c r="D95">
-        <v>-0.765</v>
+        <v>-0.3182</v>
       </c>
       <c r="E95">
-        <v>0.694</v>
+        <v>0.783</v>
       </c>
       <c r="F95">
-        <v>0.306</v>
+        <v>0.138</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8992,16 +8992,16 @@
         <v>310</v>
       </c>
       <c r="D96">
-        <v>-0.5859</v>
+        <v>-0.4019</v>
       </c>
       <c r="E96">
-        <v>0.669</v>
+        <v>0.886</v>
       </c>
       <c r="F96">
-        <v>0.232</v>
+        <v>0.114</v>
       </c>
       <c r="G96">
-        <v>0.099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -9015,13 +9015,13 @@
         <v>311</v>
       </c>
       <c r="D97">
-        <v>-0.765</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9038,16 +9038,16 @@
         <v>312</v>
       </c>
       <c r="D98">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.711</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -9061,13 +9061,13 @@
         <v>313</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.765</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.694</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>314</v>
       </c>
       <c r="D100">
-        <v>0.2023</v>
+        <v>-0.5859</v>
       </c>
       <c r="E100">
-        <v>0.917</v>
+        <v>0.669</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="G100">
-        <v>0.083</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -9107,13 +9107,13 @@
         <v>315</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-0.765</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0.714</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>317</v>
       </c>
       <c r="D2">
-        <v>-0.3566</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.899</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -9189,16 +9189,16 @@
         <v>318</v>
       </c>
       <c r="D3">
-        <v>0.4019</v>
+        <v>-0.2411</v>
       </c>
       <c r="E3">
-        <v>0.856</v>
+        <v>0.891</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="G3">
-        <v>0.144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9212,16 +9212,16 @@
         <v>319</v>
       </c>
       <c r="D4">
-        <v>0.6908</v>
+        <v>0.3818</v>
       </c>
       <c r="E4">
-        <v>0.725</v>
+        <v>0.822</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.275</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9235,16 +9235,16 @@
         <v>320</v>
       </c>
       <c r="D5">
-        <v>0.6249</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.711</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9281,13 +9281,13 @@
         <v>322</v>
       </c>
       <c r="D7">
-        <v>-0.6124000000000001</v>
+        <v>-0.7184</v>
       </c>
       <c r="E7">
-        <v>0.762</v>
+        <v>0.727</v>
       </c>
       <c r="F7">
-        <v>0.238</v>
+        <v>0.273</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -9304,16 +9304,16 @@
         <v>323</v>
       </c>
       <c r="D8">
-        <v>-0.8126</v>
+        <v>0.4404</v>
       </c>
       <c r="E8">
-        <v>0.46</v>
+        <v>0.847</v>
       </c>
       <c r="F8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9327,16 +9327,16 @@
         <v>324</v>
       </c>
       <c r="D9">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9350,13 +9350,13 @@
         <v>325</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-0.4767</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -9373,13 +9373,13 @@
         <v>326</v>
       </c>
       <c r="D11">
-        <v>-0.3612</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -9396,16 +9396,16 @@
         <v>327</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.5994</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.655</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9419,16 +9419,16 @@
         <v>328</v>
       </c>
       <c r="D13">
-        <v>-0.0258</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="E13">
-        <v>0.548</v>
+        <v>0.841</v>
       </c>
       <c r="F13">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.247</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9442,13 +9442,13 @@
         <v>329</v>
       </c>
       <c r="D14">
-        <v>-0.3182</v>
+        <v>-0.6765</v>
       </c>
       <c r="E14">
-        <v>0.874</v>
+        <v>0.791</v>
       </c>
       <c r="F14">
-        <v>0.126</v>
+        <v>0.209</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -9465,13 +9465,13 @@
         <v>330</v>
       </c>
       <c r="D15">
-        <v>-0.3818</v>
+        <v>-0.3566</v>
       </c>
       <c r="E15">
-        <v>0.794</v>
+        <v>0.899</v>
       </c>
       <c r="F15">
-        <v>0.206</v>
+        <v>0.101</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>331</v>
       </c>
       <c r="D16">
-        <v>-0.6908</v>
+        <v>0.4019</v>
       </c>
       <c r="E16">
-        <v>0.783</v>
+        <v>0.856</v>
       </c>
       <c r="F16">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9511,16 +9511,16 @@
         <v>332</v>
       </c>
       <c r="D17">
-        <v>-0.4019</v>
+        <v>0.6908</v>
       </c>
       <c r="E17">
-        <v>0.838</v>
+        <v>0.725</v>
       </c>
       <c r="F17">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9534,16 +9534,16 @@
         <v>333</v>
       </c>
       <c r="D18">
-        <v>0.8270999999999999</v>
+        <v>0.6249</v>
       </c>
       <c r="E18">
-        <v>0.5649999999999999</v>
+        <v>0.711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.435</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9557,16 +9557,16 @@
         <v>334</v>
       </c>
       <c r="D19">
-        <v>0.5266999999999999</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.841</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -9580,13 +9580,13 @@
         <v>335</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.762</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -9603,13 +9603,13 @@
         <v>336</v>
       </c>
       <c r="D21">
-        <v>-0.765</v>
+        <v>-0.8126</v>
       </c>
       <c r="E21">
-        <v>0.694</v>
+        <v>0.46</v>
       </c>
       <c r="F21">
-        <v>0.306</v>
+        <v>0.54</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -9626,16 +9626,16 @@
         <v>337</v>
       </c>
       <c r="D22">
-        <v>-0.7506</v>
+        <v>0.296</v>
       </c>
       <c r="E22">
-        <v>0.6860000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="F22">
-        <v>0.314</v>
+        <v>0.095</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9649,16 +9649,16 @@
         <v>338</v>
       </c>
       <c r="D23">
-        <v>0.5106000000000001</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.732</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9672,13 +9672,13 @@
         <v>339</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-0.3612</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -9695,13 +9695,13 @@
         <v>340</v>
       </c>
       <c r="D25">
-        <v>-0.6705</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -9718,16 +9718,16 @@
         <v>341</v>
       </c>
       <c r="D26">
-        <v>0.34</v>
+        <v>-0.0258</v>
       </c>
       <c r="E26">
-        <v>0.902</v>
+        <v>0.548</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="G26">
-        <v>0.098</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9741,13 +9741,13 @@
         <v>342</v>
       </c>
       <c r="D27">
-        <v>-0.4588</v>
+        <v>-0.3182</v>
       </c>
       <c r="E27">
-        <v>0.842</v>
+        <v>0.874</v>
       </c>
       <c r="F27">
-        <v>0.158</v>
+        <v>0.126</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>343</v>
       </c>
       <c r="D28">
-        <v>-0.4708</v>
+        <v>-0.3818</v>
       </c>
       <c r="E28">
-        <v>0.668</v>
+        <v>0.794</v>
       </c>
       <c r="F28">
-        <v>0.223</v>
+        <v>0.206</v>
       </c>
       <c r="G28">
-        <v>0.109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9787,13 +9787,13 @@
         <v>344</v>
       </c>
       <c r="D29">
-        <v>-0.1531</v>
+        <v>-0.6908</v>
       </c>
       <c r="E29">
-        <v>0.882</v>
+        <v>0.783</v>
       </c>
       <c r="F29">
-        <v>0.118</v>
+        <v>0.217</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -9810,16 +9810,16 @@
         <v>345</v>
       </c>
       <c r="D30">
-        <v>0.5719</v>
+        <v>-0.4019</v>
       </c>
       <c r="E30">
-        <v>0.73</v>
+        <v>0.838</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="G30">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9833,16 +9833,16 @@
         <v>346</v>
       </c>
       <c r="D31">
-        <v>-0.5423</v>
+        <v>0.8270999999999999</v>
       </c>
       <c r="E31">
-        <v>0.759</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F31">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9856,16 +9856,16 @@
         <v>347</v>
       </c>
       <c r="D32">
-        <v>-0.4019</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="E32">
-        <v>0.678</v>
+        <v>0.841</v>
       </c>
       <c r="F32">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.113</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9879,13 +9879,13 @@
         <v>348</v>
       </c>
       <c r="D33">
-        <v>-0.4019</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.838</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -9902,16 +9902,16 @@
         <v>349</v>
       </c>
       <c r="D34">
-        <v>-0.4939</v>
+        <v>-0.765</v>
       </c>
       <c r="E34">
-        <v>0.494</v>
+        <v>0.694</v>
       </c>
       <c r="F34">
-        <v>0.352</v>
+        <v>0.306</v>
       </c>
       <c r="G34">
-        <v>0.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9925,13 +9925,13 @@
         <v>350</v>
       </c>
       <c r="D35">
-        <v>-0.5574</v>
+        <v>-0.7506</v>
       </c>
       <c r="E35">
-        <v>0.795</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F35">
-        <v>0.205</v>
+        <v>0.314</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>351</v>
       </c>
       <c r="D36">
-        <v>-0.4404</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="E36">
-        <v>0.838</v>
+        <v>0.732</v>
       </c>
       <c r="F36">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9994,16 +9994,16 @@
         <v>353</v>
       </c>
       <c r="D38">
-        <v>0.4588</v>
+        <v>-0.6705</v>
       </c>
       <c r="E38">
-        <v>0.842</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G38">
-        <v>0.158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -10017,16 +10017,16 @@
         <v>354</v>
       </c>
       <c r="D39">
-        <v>0.3612</v>
+        <v>0.34</v>
       </c>
       <c r="E39">
-        <v>0.872</v>
+        <v>0.902</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.128</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -10040,13 +10040,13 @@
         <v>355</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-0.4588</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.842</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -10063,16 +10063,16 @@
         <v>356</v>
       </c>
       <c r="D41">
-        <v>-0.9538</v>
+        <v>-0.4708</v>
       </c>
       <c r="E41">
-        <v>0.536</v>
+        <v>0.668</v>
       </c>
       <c r="F41">
-        <v>0.464</v>
+        <v>0.223</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10086,16 +10086,16 @@
         <v>357</v>
       </c>
       <c r="D42">
-        <v>0.4939</v>
+        <v>-0.1531</v>
       </c>
       <c r="E42">
-        <v>0.873</v>
+        <v>0.882</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="G42">
-        <v>0.127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -10109,16 +10109,16 @@
         <v>358</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.5719</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10132,13 +10132,13 @@
         <v>359</v>
       </c>
       <c r="D44">
-        <v>-0.2023</v>
+        <v>-0.5423</v>
       </c>
       <c r="E44">
-        <v>0.878</v>
+        <v>0.759</v>
       </c>
       <c r="F44">
-        <v>0.122</v>
+        <v>0.241</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -10155,16 +10155,16 @@
         <v>360</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-0.4019</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.678</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -10178,16 +10178,16 @@
         <v>361</v>
       </c>
       <c r="D46">
-        <v>0.4019</v>
+        <v>-0.4019</v>
       </c>
       <c r="E46">
-        <v>0.87</v>
+        <v>0.838</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="G46">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -10201,16 +10201,16 @@
         <v>362</v>
       </c>
       <c r="D47">
-        <v>0.3612</v>
+        <v>-0.4939</v>
       </c>
       <c r="E47">
-        <v>0.878</v>
+        <v>0.494</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="G47">
-        <v>0.122</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -10224,13 +10224,13 @@
         <v>363</v>
       </c>
       <c r="D48">
-        <v>-0.802</v>
+        <v>-0.5574</v>
       </c>
       <c r="E48">
-        <v>0.604</v>
+        <v>0.795</v>
       </c>
       <c r="F48">
-        <v>0.396</v>
+        <v>0.205</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -10247,13 +10247,13 @@
         <v>364</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.4404</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.838</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>365</v>
       </c>
       <c r="D50">
-        <v>-0.3612</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.878</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -10293,16 +10293,16 @@
         <v>366</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.4588</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.842</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -10319,13 +10319,13 @@
         <v>0.3612</v>
       </c>
       <c r="E52">
-        <v>0.848</v>
+        <v>0.872</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.152</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -10362,13 +10362,13 @@
         <v>369</v>
       </c>
       <c r="D54">
-        <v>-0.7964</v>
+        <v>-0.9538</v>
       </c>
       <c r="E54">
-        <v>0.664</v>
+        <v>0.536</v>
       </c>
       <c r="F54">
-        <v>0.336</v>
+        <v>0.464</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -10385,16 +10385,16 @@
         <v>370</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.4939</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.873</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -10408,16 +10408,16 @@
         <v>371</v>
       </c>
       <c r="D56">
-        <v>0.5266999999999999</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.841</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -10431,13 +10431,13 @@
         <v>372</v>
       </c>
       <c r="D57">
-        <v>-0.6486</v>
+        <v>-0.2023</v>
       </c>
       <c r="E57">
-        <v>0.694</v>
+        <v>0.878</v>
       </c>
       <c r="F57">
-        <v>0.306</v>
+        <v>0.122</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -10454,13 +10454,13 @@
         <v>373</v>
       </c>
       <c r="D58">
-        <v>-0.2023</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.847</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -10477,16 +10477,16 @@
         <v>374</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.4019</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -10500,16 +10500,16 @@
         <v>375</v>
       </c>
       <c r="D60">
-        <v>-0.4404</v>
+        <v>0.3612</v>
       </c>
       <c r="E60">
-        <v>0.873</v>
+        <v>0.878</v>
       </c>
       <c r="F60">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -10526,10 +10526,10 @@
         <v>-0.802</v>
       </c>
       <c r="E61">
-        <v>0.725</v>
+        <v>0.604</v>
       </c>
       <c r="F61">
-        <v>0.275</v>
+        <v>0.396</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -10569,13 +10569,13 @@
         <v>378</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-0.3612</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.878</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -10592,16 +10592,16 @@
         <v>379</v>
       </c>
       <c r="D64">
-        <v>0.5719</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.719</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10615,16 +10615,16 @@
         <v>380</v>
       </c>
       <c r="D65">
-        <v>-0.8519</v>
+        <v>0.3612</v>
       </c>
       <c r="E65">
-        <v>0.57</v>
+        <v>0.848</v>
       </c>
       <c r="F65">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -10638,16 +10638,16 @@
         <v>381</v>
       </c>
       <c r="D66">
-        <v>0.2263</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.476</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -10661,13 +10661,13 @@
         <v>382</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-0.7964</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.664</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -10684,16 +10684,16 @@
         <v>383</v>
       </c>
       <c r="D68">
-        <v>-0.4019</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0.6840000000000001</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0.229</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -10707,16 +10707,16 @@
         <v>384</v>
       </c>
       <c r="D69">
-        <v>-0.5423</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="E69">
-        <v>0.741</v>
+        <v>0.841</v>
       </c>
       <c r="F69">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -10730,13 +10730,13 @@
         <v>385</v>
       </c>
       <c r="D70">
-        <v>-0.9186</v>
+        <v>-0.6486</v>
       </c>
       <c r="E70">
-        <v>0.48</v>
+        <v>0.694</v>
       </c>
       <c r="F70">
-        <v>0.52</v>
+        <v>0.306</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -10753,13 +10753,13 @@
         <v>386</v>
       </c>
       <c r="D71">
-        <v>-0.6597</v>
+        <v>-0.2023</v>
       </c>
       <c r="E71">
-        <v>0.6899999999999999</v>
+        <v>0.847</v>
       </c>
       <c r="F71">
-        <v>0.31</v>
+        <v>0.153</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -10776,16 +10776,16 @@
         <v>387</v>
       </c>
       <c r="D72">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.795</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -10799,16 +10799,16 @@
         <v>388</v>
       </c>
       <c r="D73">
-        <v>0.4767</v>
+        <v>-0.4404</v>
       </c>
       <c r="E73">
-        <v>0.765</v>
+        <v>0.873</v>
       </c>
       <c r="F73">
-        <v>0.06</v>
+        <v>0.127</v>
       </c>
       <c r="G73">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -10822,16 +10822,16 @@
         <v>389</v>
       </c>
       <c r="D74">
-        <v>0.3612</v>
+        <v>-0.802</v>
       </c>
       <c r="E74">
-        <v>0.889</v>
+        <v>0.725</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="G74">
-        <v>0.111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -10845,13 +10845,13 @@
         <v>390</v>
       </c>
       <c r="D75">
-        <v>-0.5423</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.743</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -10868,16 +10868,16 @@
         <v>391</v>
       </c>
       <c r="D76">
-        <v>0.4215</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.865</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -10891,16 +10891,16 @@
         <v>392</v>
       </c>
       <c r="D77">
-        <v>0.1531</v>
+        <v>0.5719</v>
       </c>
       <c r="E77">
-        <v>0.8139999999999999</v>
+        <v>0.719</v>
       </c>
       <c r="F77">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.105</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -10914,13 +10914,13 @@
         <v>393</v>
       </c>
       <c r="D78">
-        <v>-0.2838</v>
+        <v>-0.8519</v>
       </c>
       <c r="E78">
-        <v>0.893</v>
+        <v>0.57</v>
       </c>
       <c r="F78">
-        <v>0.107</v>
+        <v>0.43</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -10937,16 +10937,16 @@
         <v>394</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.2263</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0.476</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -10983,16 +10983,16 @@
         <v>396</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-0.4019</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -11006,16 +11006,16 @@
         <v>397</v>
       </c>
       <c r="D82">
-        <v>0.296</v>
+        <v>-0.5423</v>
       </c>
       <c r="E82">
-        <v>0.8110000000000001</v>
+        <v>0.741</v>
       </c>
       <c r="F82">
-        <v>0.068</v>
+        <v>0.259</v>
       </c>
       <c r="G82">
-        <v>0.122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -11029,13 +11029,13 @@
         <v>398</v>
       </c>
       <c r="D83">
-        <v>-0.7003</v>
+        <v>-0.9186</v>
       </c>
       <c r="E83">
-        <v>0.547</v>
+        <v>0.48</v>
       </c>
       <c r="F83">
-        <v>0.453</v>
+        <v>0.52</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -11052,16 +11052,16 @@
         <v>399</v>
       </c>
       <c r="D84">
-        <v>0.6249</v>
+        <v>-0.6597</v>
       </c>
       <c r="E84">
-        <v>0.8139999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G84">
-        <v>0.186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -11075,16 +11075,16 @@
         <v>400</v>
       </c>
       <c r="D85">
-        <v>-0.4588</v>
+        <v>0.5994</v>
       </c>
       <c r="E85">
-        <v>0.842</v>
+        <v>0.795</v>
       </c>
       <c r="F85">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -11098,16 +11098,16 @@
         <v>401</v>
       </c>
       <c r="D86">
-        <v>0.7783</v>
+        <v>0.4767</v>
       </c>
       <c r="E86">
-        <v>0.657</v>
+        <v>0.765</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G86">
-        <v>0.343</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -11121,16 +11121,16 @@
         <v>402</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.3612</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -11144,13 +11144,13 @@
         <v>403</v>
       </c>
       <c r="D88">
-        <v>-0.4137</v>
+        <v>-0.5423</v>
       </c>
       <c r="E88">
-        <v>0.884</v>
+        <v>0.743</v>
       </c>
       <c r="F88">
-        <v>0.116</v>
+        <v>0.257</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -11167,16 +11167,16 @@
         <v>404</v>
       </c>
       <c r="D89">
-        <v>-0.6597</v>
+        <v>0.4215</v>
       </c>
       <c r="E89">
-        <v>0.6899999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="F89">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -11190,16 +11190,16 @@
         <v>405</v>
       </c>
       <c r="D90">
-        <v>-0.5574</v>
+        <v>0.1531</v>
       </c>
       <c r="E90">
-        <v>0.783</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F90">
-        <v>0.217</v>
+        <v>0.081</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -11213,13 +11213,13 @@
         <v>406</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>-0.2838</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.893</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -11236,16 +11236,16 @@
         <v>407</v>
       </c>
       <c r="D92">
-        <v>0.7096</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0.622</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -11282,16 +11282,16 @@
         <v>409</v>
       </c>
       <c r="D94">
-        <v>0.3818</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0.822</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -11305,16 +11305,16 @@
         <v>410</v>
       </c>
       <c r="D95">
-        <v>-0.7003</v>
+        <v>0.296</v>
       </c>
       <c r="E95">
-        <v>0.58</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F95">
-        <v>0.42</v>
+        <v>0.068</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -11328,13 +11328,13 @@
         <v>411</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.7003</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0.547</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.453</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -11351,16 +11351,16 @@
         <v>412</v>
       </c>
       <c r="D97">
-        <v>-0.7184</v>
+        <v>0.6249</v>
       </c>
       <c r="E97">
-        <v>0.727</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F97">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -11374,13 +11374,13 @@
         <v>413</v>
       </c>
       <c r="D98">
-        <v>-0.8555</v>
+        <v>-0.4588</v>
       </c>
       <c r="E98">
-        <v>0.539</v>
+        <v>0.842</v>
       </c>
       <c r="F98">
-        <v>0.461</v>
+        <v>0.158</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -11397,16 +11397,16 @@
         <v>414</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.7783</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.657</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -11420,13 +11420,13 @@
         <v>415</v>
       </c>
       <c r="D100">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.838</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -11443,13 +11443,13 @@
         <v>416</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-0.4137</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0.884</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -11502,16 +11502,16 @@
         <v>418</v>
       </c>
       <c r="D2">
-        <v>-0.1027</v>
+        <v>-0.6908</v>
       </c>
       <c r="E2">
-        <v>0.68</v>
+        <v>0.793</v>
       </c>
       <c r="F2">
-        <v>0.188</v>
+        <v>0.207</v>
       </c>
       <c r="G2">
-        <v>0.132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11525,16 +11525,16 @@
         <v>419</v>
       </c>
       <c r="D3">
-        <v>0.0258</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9389999999999999</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11548,16 +11548,16 @@
         <v>420</v>
       </c>
       <c r="D4">
-        <v>0.34</v>
+        <v>0.2776</v>
       </c>
       <c r="E4">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="G4">
-        <v>0.179</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11571,16 +11571,16 @@
         <v>421</v>
       </c>
       <c r="D5">
-        <v>0.7351</v>
+        <v>0.4215</v>
       </c>
       <c r="E5">
-        <v>0.725</v>
+        <v>0.797</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.275</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11594,16 +11594,16 @@
         <v>422</v>
       </c>
       <c r="D6">
-        <v>-0.6124000000000001</v>
+        <v>-0.1027</v>
       </c>
       <c r="E6">
-        <v>0.733</v>
+        <v>0.68</v>
       </c>
       <c r="F6">
-        <v>0.267</v>
+        <v>0.188</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11617,16 +11617,16 @@
         <v>423</v>
       </c>
       <c r="D7">
-        <v>0.4215</v>
+        <v>0.0258</v>
       </c>
       <c r="E7">
-        <v>0.865</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.135</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11640,16 +11640,16 @@
         <v>424</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.821</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11663,16 +11663,16 @@
         <v>425</v>
       </c>
       <c r="D9">
-        <v>0.4215</v>
+        <v>0.7351</v>
       </c>
       <c r="E9">
-        <v>0.865</v>
+        <v>0.725</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.135</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11686,13 +11686,13 @@
         <v>426</v>
       </c>
       <c r="D10">
-        <v>-0.8779</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E10">
-        <v>0.664</v>
+        <v>0.733</v>
       </c>
       <c r="F10">
-        <v>0.336</v>
+        <v>0.267</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -11709,16 +11709,16 @@
         <v>427</v>
       </c>
       <c r="D11">
-        <v>-0.128</v>
+        <v>0.4215</v>
       </c>
       <c r="E11">
-        <v>0.842</v>
+        <v>0.865</v>
       </c>
       <c r="F11">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11732,13 +11732,13 @@
         <v>428</v>
       </c>
       <c r="D12">
-        <v>-0.3612</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8149999999999999</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11755,16 +11755,16 @@
         <v>429</v>
       </c>
       <c r="D13">
-        <v>0.5719</v>
+        <v>0.4215</v>
       </c>
       <c r="E13">
-        <v>0.709</v>
+        <v>0.865</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.291</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -11778,16 +11778,16 @@
         <v>430</v>
       </c>
       <c r="D14">
-        <v>0.5719</v>
+        <v>-0.8779</v>
       </c>
       <c r="E14">
-        <v>0.6840000000000001</v>
+        <v>0.664</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="G14">
-        <v>0.316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11801,16 +11801,16 @@
         <v>431</v>
       </c>
       <c r="D15">
-        <v>0.6597</v>
+        <v>-0.128</v>
       </c>
       <c r="E15">
-        <v>0.769</v>
+        <v>0.842</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="G15">
-        <v>0.231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11824,16 +11824,16 @@
         <v>432</v>
       </c>
       <c r="D16">
-        <v>0.8591</v>
+        <v>-0.3612</v>
       </c>
       <c r="E16">
-        <v>0.578</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="G16">
-        <v>0.422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11847,16 +11847,16 @@
         <v>433</v>
       </c>
       <c r="D17">
-        <v>0.7964</v>
+        <v>0.5719</v>
       </c>
       <c r="E17">
-        <v>0.458</v>
+        <v>0.709</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.542</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11870,16 +11870,16 @@
         <v>434</v>
       </c>
       <c r="D18">
-        <v>-0.1779</v>
+        <v>0.5719</v>
       </c>
       <c r="E18">
-        <v>0.841</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F18">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11893,16 +11893,16 @@
         <v>435</v>
       </c>
       <c r="D19">
-        <v>-0.6124000000000001</v>
+        <v>0.6597</v>
       </c>
       <c r="E19">
-        <v>0.643</v>
+        <v>0.769</v>
       </c>
       <c r="F19">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11916,16 +11916,16 @@
         <v>436</v>
       </c>
       <c r="D20">
-        <v>0.7579</v>
+        <v>0.8591</v>
       </c>
       <c r="E20">
-        <v>0.772</v>
+        <v>0.578</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.228</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11939,16 +11939,16 @@
         <v>437</v>
       </c>
       <c r="D21">
-        <v>-0.1779</v>
+        <v>0.7964</v>
       </c>
       <c r="E21">
-        <v>0.637</v>
+        <v>0.458</v>
       </c>
       <c r="F21">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.167</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11962,13 +11962,13 @@
         <v>438</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.1779</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.841</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -11985,16 +11985,16 @@
         <v>439</v>
       </c>
       <c r="D23">
-        <v>-0.1531</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E23">
-        <v>0.659</v>
+        <v>0.643</v>
       </c>
       <c r="F23">
-        <v>0.187</v>
+        <v>0.357</v>
       </c>
       <c r="G23">
-        <v>0.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12008,16 +12008,16 @@
         <v>440</v>
       </c>
       <c r="D24">
-        <v>0.3612</v>
+        <v>0.7579</v>
       </c>
       <c r="E24">
-        <v>0.753</v>
+        <v>0.772</v>
       </c>
       <c r="F24">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.168</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12031,16 +12031,16 @@
         <v>441</v>
       </c>
       <c r="D25">
-        <v>-0.7717000000000001</v>
+        <v>-0.1779</v>
       </c>
       <c r="E25">
-        <v>0.573</v>
+        <v>0.637</v>
       </c>
       <c r="F25">
-        <v>0.427</v>
+        <v>0.195</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12077,16 +12077,16 @@
         <v>443</v>
       </c>
       <c r="D27">
-        <v>-0.2023</v>
+        <v>-0.1531</v>
       </c>
       <c r="E27">
-        <v>0.802</v>
+        <v>0.659</v>
       </c>
       <c r="F27">
-        <v>0.118</v>
+        <v>0.187</v>
       </c>
       <c r="G27">
-        <v>0.08</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12100,16 +12100,16 @@
         <v>444</v>
       </c>
       <c r="D28">
-        <v>0.34</v>
+        <v>0.3612</v>
       </c>
       <c r="E28">
-        <v>0.893</v>
+        <v>0.753</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="G28">
-        <v>0.107</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12123,16 +12123,16 @@
         <v>445</v>
       </c>
       <c r="D29">
-        <v>0.2732</v>
+        <v>-0.7717000000000001</v>
       </c>
       <c r="E29">
-        <v>0.826</v>
+        <v>0.573</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.427</v>
       </c>
       <c r="G29">
-        <v>0.174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12146,16 +12146,16 @@
         <v>446</v>
       </c>
       <c r="D30">
-        <v>0.5256</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -12169,16 +12169,16 @@
         <v>447</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-0.2023</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.802</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12192,16 +12192,16 @@
         <v>448</v>
       </c>
       <c r="D32">
-        <v>0.4069</v>
+        <v>0.34</v>
       </c>
       <c r="E32">
-        <v>0.732</v>
+        <v>0.893</v>
       </c>
       <c r="F32">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.146</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12215,16 +12215,16 @@
         <v>449</v>
       </c>
       <c r="D33">
-        <v>-0.2023</v>
+        <v>0.2732</v>
       </c>
       <c r="E33">
-        <v>0.8080000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="F33">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.081</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -12238,16 +12238,16 @@
         <v>450</v>
       </c>
       <c r="D34">
-        <v>0.2732</v>
+        <v>0.5256</v>
       </c>
       <c r="E34">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.1</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -12261,16 +12261,16 @@
         <v>451</v>
       </c>
       <c r="D35">
-        <v>-0.0516</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.787</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -12284,16 +12284,16 @@
         <v>452</v>
       </c>
       <c r="D36">
-        <v>0.4404</v>
+        <v>0.4069</v>
       </c>
       <c r="E36">
-        <v>0.868</v>
+        <v>0.732</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="G36">
-        <v>0.132</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12307,16 +12307,16 @@
         <v>453</v>
       </c>
       <c r="D37">
-        <v>0.7534999999999999</v>
+        <v>-0.2023</v>
       </c>
       <c r="E37">
-        <v>0.756</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G37">
-        <v>0.244</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12330,16 +12330,16 @@
         <v>454</v>
       </c>
       <c r="D38">
-        <v>-0.7717000000000001</v>
+        <v>0.2732</v>
       </c>
       <c r="E38">
-        <v>0.712</v>
+        <v>0.9</v>
       </c>
       <c r="F38">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12353,16 +12353,16 @@
         <v>455</v>
       </c>
       <c r="D39">
-        <v>-0.7096</v>
+        <v>-0.0516</v>
       </c>
       <c r="E39">
-        <v>0.731</v>
+        <v>0.787</v>
       </c>
       <c r="F39">
-        <v>0.269</v>
+        <v>0.112</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12376,16 +12376,16 @@
         <v>456</v>
       </c>
       <c r="D40">
-        <v>0.0772</v>
+        <v>0.4404</v>
       </c>
       <c r="E40">
-        <v>0.837</v>
+        <v>0.868</v>
       </c>
       <c r="F40">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.089</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12399,16 +12399,16 @@
         <v>457</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.756</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12422,13 +12422,13 @@
         <v>458</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-0.7717000000000001</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.712</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.288</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -12445,16 +12445,16 @@
         <v>459</v>
       </c>
       <c r="D43">
-        <v>0.25</v>
+        <v>-0.7096</v>
       </c>
       <c r="E43">
-        <v>0.905</v>
+        <v>0.731</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="G43">
-        <v>0.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12468,16 +12468,16 @@
         <v>460</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.837</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12491,13 +12491,13 @@
         <v>461</v>
       </c>
       <c r="D45">
-        <v>-0.6124000000000001</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -12514,13 +12514,13 @@
         <v>462</v>
       </c>
       <c r="D46">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.9379999999999999</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -12537,16 +12537,16 @@
         <v>463</v>
       </c>
       <c r="D47">
-        <v>0.3612</v>
+        <v>0.25</v>
       </c>
       <c r="E47">
-        <v>0.878</v>
+        <v>0.905</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.122</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12560,16 +12560,16 @@
         <v>464</v>
       </c>
       <c r="D48">
-        <v>-0.1027</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12583,13 +12583,13 @@
         <v>465</v>
       </c>
       <c r="D49">
-        <v>-0.3182</v>
+        <v>-0.6124000000000001</v>
       </c>
       <c r="E49">
-        <v>0.897</v>
+        <v>0.8</v>
       </c>
       <c r="F49">
-        <v>0.103</v>
+        <v>0.2</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -12606,13 +12606,13 @@
         <v>466</v>
       </c>
       <c r="D50">
-        <v>-0.8591</v>
+        <v>-0.1531</v>
       </c>
       <c r="E50">
-        <v>0.537</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F50">
-        <v>0.463</v>
+        <v>0.062</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -12629,16 +12629,16 @@
         <v>467</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.3612</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.878</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12652,16 +12652,16 @@
         <v>468</v>
       </c>
       <c r="D52">
-        <v>0.0258</v>
+        <v>-0.1027</v>
       </c>
       <c r="E52">
-        <v>0.9389999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="G52">
-        <v>0.061</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12675,16 +12675,16 @@
         <v>469</v>
       </c>
       <c r="D53">
-        <v>0.3724</v>
+        <v>-0.3182</v>
       </c>
       <c r="E53">
-        <v>0.882</v>
+        <v>0.897</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="G53">
-        <v>0.118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12698,16 +12698,16 @@
         <v>470</v>
       </c>
       <c r="D54">
-        <v>0.2732</v>
+        <v>-0.8591</v>
       </c>
       <c r="E54">
-        <v>0.6830000000000001</v>
+        <v>0.537</v>
       </c>
       <c r="F54">
-        <v>0.107</v>
+        <v>0.463</v>
       </c>
       <c r="G54">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -12721,16 +12721,16 @@
         <v>471</v>
       </c>
       <c r="D55">
-        <v>0.4215</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.865</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12744,16 +12744,16 @@
         <v>472</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12767,16 +12767,16 @@
         <v>473</v>
       </c>
       <c r="D57">
-        <v>-0.34</v>
+        <v>0.3724</v>
       </c>
       <c r="E57">
-        <v>0.806</v>
+        <v>0.882</v>
       </c>
       <c r="F57">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12790,16 +12790,16 @@
         <v>474</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.2732</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -12813,16 +12813,16 @@
         <v>475</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.4215</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12836,13 +12836,13 @@
         <v>476</v>
       </c>
       <c r="D60">
-        <v>-0.4588</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -12859,16 +12859,16 @@
         <v>477</v>
       </c>
       <c r="D61">
-        <v>-0.4404</v>
+        <v>-0.34</v>
       </c>
       <c r="E61">
-        <v>0.763</v>
+        <v>0.806</v>
       </c>
       <c r="F61">
-        <v>0.157</v>
+        <v>0.194</v>
       </c>
       <c r="G61">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -12882,16 +12882,16 @@
         <v>478</v>
       </c>
       <c r="D62">
-        <v>0.6124000000000001</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0.792</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -12905,16 +12905,16 @@
         <v>479</v>
       </c>
       <c r="D63">
-        <v>0.6124000000000001</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.731</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -12928,13 +12928,13 @@
         <v>480</v>
       </c>
       <c r="D64">
-        <v>-0.6486</v>
+        <v>-0.4588</v>
       </c>
       <c r="E64">
-        <v>0.654</v>
+        <v>0.857</v>
       </c>
       <c r="F64">
-        <v>0.346</v>
+        <v>0.143</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -12951,16 +12951,16 @@
         <v>481</v>
       </c>
       <c r="D65">
-        <v>0.128</v>
+        <v>-0.4404</v>
       </c>
       <c r="E65">
-        <v>0.93</v>
+        <v>0.763</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="G65">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -12974,16 +12974,16 @@
         <v>482</v>
       </c>
       <c r="D66">
-        <v>-0.8625</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="E66">
-        <v>0.508</v>
+        <v>0.792</v>
       </c>
       <c r="F66">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.059</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -12997,16 +12997,16 @@
         <v>483</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.731</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13020,13 +13020,13 @@
         <v>484</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-0.6486</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0.654</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -13043,16 +13043,16 @@
         <v>485</v>
       </c>
       <c r="D69">
-        <v>0.3612</v>
+        <v>0.128</v>
       </c>
       <c r="E69">
-        <v>0.884</v>
+        <v>0.93</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.116</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13066,16 +13066,16 @@
         <v>486</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-0.8625</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.508</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13089,16 +13089,16 @@
         <v>487</v>
       </c>
       <c r="D71">
-        <v>0.2732</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.826</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13135,16 +13135,16 @@
         <v>489</v>
       </c>
       <c r="D73">
-        <v>0.0258</v>
+        <v>0.3612</v>
       </c>
       <c r="E73">
-        <v>0.628</v>
+        <v>0.884</v>
       </c>
       <c r="F73">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.188</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13158,13 +13158,13 @@
         <v>490</v>
       </c>
       <c r="D74">
-        <v>-0.3939</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.888</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -13181,16 +13181,16 @@
         <v>491</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.2732</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.826</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13204,13 +13204,13 @@
         <v>492</v>
       </c>
       <c r="D76">
-        <v>-0.3182</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.839</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -13227,16 +13227,16 @@
         <v>493</v>
       </c>
       <c r="D77">
-        <v>0.3612</v>
+        <v>0.0258</v>
       </c>
       <c r="E77">
-        <v>0.8149999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="G77">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -13250,16 +13250,16 @@
         <v>494</v>
       </c>
       <c r="D78">
-        <v>0.3612</v>
+        <v>-0.3939</v>
       </c>
       <c r="E78">
-        <v>0.828</v>
+        <v>0.888</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G78">
-        <v>0.172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -13273,13 +13273,13 @@
         <v>495</v>
       </c>
       <c r="D79">
-        <v>-0.3818</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.867</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -13296,13 +13296,13 @@
         <v>496</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>-0.3182</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.839</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -13319,16 +13319,16 @@
         <v>497</v>
       </c>
       <c r="D81">
-        <v>-0.5849</v>
+        <v>0.3612</v>
       </c>
       <c r="E81">
-        <v>0.79</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F81">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -13342,16 +13342,16 @@
         <v>498</v>
       </c>
       <c r="D82">
-        <v>-0.9062</v>
+        <v>0.3612</v>
       </c>
       <c r="E82">
-        <v>0.363</v>
+        <v>0.828</v>
       </c>
       <c r="F82">
-        <v>0.637</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -13365,13 +13365,13 @@
         <v>499</v>
       </c>
       <c r="D83">
-        <v>-0.2263</v>
+        <v>-0.3818</v>
       </c>
       <c r="E83">
-        <v>0.853</v>
+        <v>0.867</v>
       </c>
       <c r="F83">
-        <v>0.147</v>
+        <v>0.133</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -13388,16 +13388,16 @@
         <v>500</v>
       </c>
       <c r="D84">
-        <v>0.7096</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.731</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -13411,13 +13411,13 @@
         <v>501</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>-0.5849</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -13434,13 +13434,13 @@
         <v>502</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-0.9062</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.637</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -13457,13 +13457,13 @@
         <v>503</v>
       </c>
       <c r="D87">
-        <v>-0.34</v>
+        <v>-0.2263</v>
       </c>
       <c r="E87">
-        <v>0.769</v>
+        <v>0.853</v>
       </c>
       <c r="F87">
-        <v>0.231</v>
+        <v>0.147</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -13480,16 +13480,16 @@
         <v>504</v>
       </c>
       <c r="D88">
-        <v>0.5423</v>
+        <v>0.7096</v>
       </c>
       <c r="E88">
-        <v>0.772</v>
+        <v>0.731</v>
       </c>
       <c r="F88">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0.175</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13503,16 +13503,16 @@
         <v>505</v>
       </c>
       <c r="D89">
-        <v>0.1531</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0.904</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -13526,16 +13526,16 @@
         <v>506</v>
       </c>
       <c r="D90">
-        <v>0.5023</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.871</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -13549,13 +13549,13 @@
         <v>507</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.769</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -13572,16 +13572,16 @@
         <v>508</v>
       </c>
       <c r="D92">
-        <v>0.3182</v>
+        <v>0.5423</v>
       </c>
       <c r="E92">
-        <v>0.901</v>
+        <v>0.772</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="G92">
-        <v>0.099</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -13595,16 +13595,16 @@
         <v>509</v>
       </c>
       <c r="D93">
-        <v>-0.296</v>
+        <v>0.1531</v>
       </c>
       <c r="E93">
-        <v>0.82</v>
+        <v>0.904</v>
       </c>
       <c r="F93">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13618,16 +13618,16 @@
         <v>510</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.5023</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.871</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13664,16 +13664,16 @@
         <v>512</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.3182</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0.901</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -13687,13 +13687,13 @@
         <v>513</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.296</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -13733,13 +13733,13 @@
         <v>515</v>
       </c>
       <c r="D99">
-        <v>-0.6908</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0.793</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -13756,16 +13756,16 @@
         <v>516</v>
       </c>
       <c r="D100">
-        <v>0.6597</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.769</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13779,13 +13779,13 @@
         <v>517</v>
       </c>
       <c r="D101">
-        <v>-0.765</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0.515</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.485</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
